--- a/Experiments/Measurements/Two Banners Side by Side/S path/Antenna_2/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Two Banners Side by Side/S path/Antenna_2/Transformed_Coordinates.xlsx
@@ -1342,7 +1342,7 @@
         <v>128.5136026589468</v>
       </c>
       <c r="H30" t="n">
-        <v>50.77340728777497</v>
+        <v>50.77340728777498</v>
       </c>
     </row>
     <row r="31">
@@ -1522,7 +1522,7 @@
         <v>147.052859239933</v>
       </c>
       <c r="H36" t="n">
-        <v>54.98419024649651</v>
+        <v>54.98419024649652</v>
       </c>
     </row>
     <row r="37">
@@ -2029,10 +2029,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>31.20846433557047</v>
+        <v>31.20846433557028</v>
       </c>
       <c r="H53" t="n">
-        <v>89.07095062931567</v>
+        <v>89.0709506293156</v>
       </c>
     </row>
     <row r="54">
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>218.7398466997818</v>
+        <v>218.7398466997822</v>
       </c>
       <c r="H54" t="n">
-        <v>93.57494107421718</v>
+        <v>93.57494107421732</v>
       </c>
     </row>
     <row r="55">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>-0.1421679418948555</v>
+        <v>-0.14216794189467</v>
       </c>
       <c r="H55" t="n">
-        <v>88.71000136345127</v>
+        <v>88.71000136345134</v>
       </c>
     </row>
     <row r="56">
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>102.1918734776202</v>
+        <v>102.19187347762</v>
       </c>
       <c r="H59" t="n">
-        <v>63.12602761602673</v>
+        <v>63.12602761602662</v>
       </c>
     </row>
     <row r="60">
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>82.21992365407829</v>
+        <v>82.21992365407868</v>
       </c>
       <c r="H60" t="n">
-        <v>64.49103785446174</v>
+        <v>64.49103785446194</v>
       </c>
     </row>
     <row r="61">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>211.0402990645681</v>
+        <v>211.0402990645683</v>
       </c>
       <c r="H61" t="n">
-        <v>57.42325877967271</v>
+        <v>57.42325877967281</v>
       </c>
     </row>
     <row r="62">
@@ -2295,10 +2295,10 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>44.32332968164036</v>
+        <v>44.32332968164056</v>
       </c>
       <c r="H62" t="n">
-        <v>53.94726373574415</v>
+        <v>53.94726373574427</v>
       </c>
     </row>
     <row r="63">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>80.77055802109557</v>
+        <v>80.77055802109537</v>
       </c>
       <c r="H65" t="n">
-        <v>58.70872597529941</v>
+        <v>58.70872597529931</v>
       </c>
     </row>
     <row r="66">
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>100.872235197907</v>
+        <v>100.8722351979074</v>
       </c>
       <c r="H66" t="n">
-        <v>68.74729364619822</v>
+        <v>68.7472936461984</v>
       </c>
     </row>
     <row r="67">
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>163.0910140474071</v>
+        <v>163.0910140474073</v>
       </c>
       <c r="H67" t="n">
-        <v>71.85937783609795</v>
+        <v>71.85937783609805</v>
       </c>
     </row>
     <row r="68">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>47.51077716750397</v>
+        <v>47.51077716750417</v>
       </c>
       <c r="H68" t="n">
-        <v>75.49358371975461</v>
+        <v>75.4935837197547</v>
       </c>
     </row>
     <row r="69">
@@ -2565,10 +2565,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>16.28372615059582</v>
+        <v>16.28372615059566</v>
       </c>
       <c r="H71" t="n">
-        <v>89.37961385175041</v>
+        <v>89.37961385175032</v>
       </c>
     </row>
     <row r="72">
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>220.407385681273</v>
+        <v>220.4073856812734</v>
       </c>
       <c r="H72" t="n">
-        <v>86.30260944288793</v>
+        <v>86.30260944288803</v>
       </c>
     </row>
     <row r="73">
@@ -2625,10 +2625,10 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>67.20966689802854</v>
+        <v>67.20966689802874</v>
       </c>
       <c r="H73" t="n">
-        <v>98.71760782990832</v>
+        <v>98.7176078299084</v>
       </c>
     </row>
     <row r="74">
@@ -2685,10 +2685,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>91.65938000515902</v>
+        <v>91.65938000515899</v>
       </c>
       <c r="H75" t="n">
-        <v>214.0756674296422</v>
+        <v>214.075667429642</v>
       </c>
     </row>
     <row r="76">
@@ -2715,10 +2715,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>217.4091172582529</v>
+        <v>217.4091172582531</v>
       </c>
       <c r="H76" t="n">
-        <v>175.7044715823162</v>
+        <v>175.7044715823165</v>
       </c>
     </row>
     <row r="77">
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>38.42889527980069</v>
+        <v>38.42889527980051</v>
       </c>
       <c r="H78" t="n">
-        <v>77.25599012978</v>
+        <v>77.25599012977993</v>
       </c>
     </row>
     <row r="79">
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>156.2028185950827</v>
+        <v>156.2028185950824</v>
       </c>
       <c r="H79" t="n">
-        <v>91.57684064749364</v>
+        <v>91.57684064749353</v>
       </c>
     </row>
     <row r="80">
@@ -2865,10 +2865,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>87.11522583277497</v>
+        <v>87.11522583277518</v>
       </c>
       <c r="H81" t="n">
-        <v>68.76295702727555</v>
+        <v>68.76295702727563</v>
       </c>
     </row>
     <row r="82">
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>44.50332080449898</v>
+        <v>44.50332080449879</v>
       </c>
       <c r="H82" t="n">
-        <v>56.86172051639956</v>
+        <v>56.86172051639943</v>
       </c>
     </row>
     <row r="83">
@@ -2925,10 +2925,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>79.04512331834673</v>
+        <v>79.04512331834651</v>
       </c>
       <c r="H83" t="n">
-        <v>74.40537092413204</v>
+        <v>74.40537092413196</v>
       </c>
     </row>
     <row r="84">
@@ -2955,10 +2955,10 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>87.47106751114526</v>
+        <v>87.47106751114546</v>
       </c>
       <c r="H84" t="n">
-        <v>64.48964657818</v>
+        <v>64.4896465781801</v>
       </c>
     </row>
     <row r="85">
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>58.19216885005772</v>
+        <v>58.19216885005809</v>
       </c>
       <c r="H85" t="n">
-        <v>77.7827698314663</v>
+        <v>77.78276983146645</v>
       </c>
     </row>
     <row r="86">
@@ -3045,10 +3045,10 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>74.66858418294127</v>
+        <v>74.66858418294107</v>
       </c>
       <c r="H87" t="n">
-        <v>55.84873683278054</v>
+        <v>55.84873683278042</v>
       </c>
     </row>
     <row r="88">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>119.6106155310549</v>
+        <v>119.6106155310547</v>
       </c>
       <c r="H88" t="n">
-        <v>61.43840946872739</v>
+        <v>61.43840946872729</v>
       </c>
     </row>
     <row r="89">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>107.1992551335361</v>
+        <v>107.1992551335363</v>
       </c>
       <c r="H89" t="n">
-        <v>57.92977600451654</v>
+        <v>57.92977600451665</v>
       </c>
     </row>
     <row r="90">
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>154.9464787651207</v>
+        <v>154.9464787651205</v>
       </c>
       <c r="H90" t="n">
-        <v>68.56034540598722</v>
+        <v>68.56034540598714</v>
       </c>
     </row>
     <row r="91">
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>96.35980980861132</v>
+        <v>96.35980980861171</v>
       </c>
       <c r="H91" t="n">
-        <v>56.44193214655224</v>
+        <v>56.44193214655247</v>
       </c>
     </row>
     <row r="92">
@@ -3195,10 +3195,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>102.9529567029023</v>
+        <v>102.9529567029027</v>
       </c>
       <c r="H92" t="n">
-        <v>66.37490844323204</v>
+        <v>66.37490844323224</v>
       </c>
     </row>
     <row r="93">
@@ -3225,10 +3225,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>83.66717022968749</v>
+        <v>83.66717022968768</v>
       </c>
       <c r="H93" t="n">
-        <v>57.91439098236858</v>
+        <v>57.91439098236869</v>
       </c>
     </row>
     <row r="94">
@@ -3255,10 +3255,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>61.5246934549557</v>
+        <v>61.52469345495542</v>
       </c>
       <c r="H94" t="n">
-        <v>80.3863201381523</v>
+        <v>80.38632013815216</v>
       </c>
     </row>
     <row r="95">
@@ -3285,10 +3285,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>66.75276549485645</v>
+        <v>66.75276549485682</v>
       </c>
       <c r="H95" t="n">
-        <v>77.15321436583524</v>
+        <v>77.15321436583541</v>
       </c>
     </row>
     <row r="96">
@@ -3345,10 +3345,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>81.19943883743171</v>
+        <v>81.19943883743152</v>
       </c>
       <c r="H97" t="n">
-        <v>69.42031681146017</v>
+        <v>69.42031681146007</v>
       </c>
     </row>
     <row r="98">
@@ -3375,10 +3375,10 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>70.68886111719948</v>
+        <v>70.68886111719929</v>
       </c>
       <c r="H98" t="n">
-        <v>62.92342375189515</v>
+        <v>62.92342375189505</v>
       </c>
     </row>
     <row r="99">
@@ -3405,10 +3405,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>75.97668222482712</v>
+        <v>75.9766822248275</v>
       </c>
       <c r="H99" t="n">
-        <v>64.11032032363131</v>
+        <v>64.11032032363151</v>
       </c>
     </row>
     <row r="100">
@@ -3465,10 +3465,10 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>56.02686466315383</v>
+        <v>56.02686466315402</v>
       </c>
       <c r="H101" t="n">
-        <v>69.23261838150654</v>
+        <v>69.23261838150664</v>
       </c>
     </row>
   </sheetData>
